--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/7_Ankara_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/7_Ankara_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF19AEB7-48DC-479E-BE15-A22E54720DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8255105-4CFD-454B-A331-1349CC93DDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84C81ABB-A392-4913-8225-FF53F4AD937A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B7A2DE8-2023-4E34-9738-5D963FF1F4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -26,6 +26,11 @@
     <sheet name="ŞUBAT" sheetId="15" r:id="rId11"/>
     <sheet name="OCAK" sheetId="14" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Criteria">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -171,11 +176,22 @@
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="10" hidden="1">ŞUBAT!$B:$D,ŞUBAT!#REF!</definedName>
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="5" hidden="1">TEMMUZ!$B:$D,TEMMUZ!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" fullCalcOnLoad="1"/>
   <customWorkbookViews>
+    <customWorkbookView name="zkoksaldi - Kişisel Görünüm" guid="{01FD6900-BC48-42DD-8C5E-28776FF2193B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="837" activeSheetId="1"/>
     <customWorkbookView name="rkarali - Kişisel Görünüm" guid="{9D8AC7D8-AEF7-4837-91CE-18DF972B485D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1148" windowHeight="702" activeSheetId="1"/>
-    <customWorkbookView name="zkoksaldi - Kişisel Görünüm" guid="{01FD6900-BC48-42DD-8C5E-28776FF2193B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="837" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -538,7 +554,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -555,7 +571,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="162"/>
     </font>
     <font>
@@ -766,28 +781,28 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{E6AFF79B-4E03-437A-88DF-A2333419B41B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{D29A56E4-9734-4E3B-A5FC-25C4361D0852}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9A32259C-572D-423E-AB58-8736202B2D6A}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{BAA4CA64-FC25-4739-8915-464BFBEEE845}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F452ED28-41A3-4EAA-9610-C0421037BEAF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{DBA74322-7503-4884-BB6A-C74970205985}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{839F763F-E7AC-4FAF-B432-6ECF81176063}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{BFDBA860-04CD-4ED6-B72E-79FFBF5E1845}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,6 +849,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Det2-Kum"/>
+      <sheetName val="Det2-Ayiçi"/>
+      <sheetName val="T1.7"/>
+      <sheetName val="T1.8"/>
+      <sheetName val="  T32"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,12 +1234,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B145909-6E92-4EB8-AB4D-5B54C34803A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F0BD4-08FD-45FD-AE4C-53F59BBC2E6C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2437,18 +2517,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{41C553B8-B996-4569-B2F5-6BC3E16663CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{59BDEB83-3BAB-4608-8EF3-D89CF0BDD2BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4868E228-1C09-4411-A511-278FA5E4A411}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D2BE793F-D199-4074-86E1-5BD0C4D1C56C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EAB5496D-6405-4000-87E9-77AA493888C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{23D8DB9C-F509-42B5-8F71-DCC28BDEE9F1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{20FACACB-CE3F-4F2C-BB43-F86BFD7539BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{80B440FD-1609-48DD-AEF5-78CF1B60FB34}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6899C08A-2F59-4DC8-A479-BC4576DFF441}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{58E4320B-BCD9-4B1B-AF87-02E89188F429}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AA06F81C-040F-4231-B666-0CC47E6A5EF6}"/>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7A4D4EE5-1C61-462A-AC2E-2162921CA8EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FE545E82-7B5B-48CB-98C6-24B37AD5FDA4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FE26DEE8-59F0-4CFC-B18B-BFC209EB437F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34642386-DBF9-4A8D-9BE7-6CAC30B8801E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6971825B-9BCB-4559-83DE-548317D1D1D5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{273132DC-48AD-480E-B799-AED0BD5EC40D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A4C16040-5903-421A-B57C-DBB879BD6597}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{54030B28-1D0A-46A6-8141-64A3FBEAEDEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A736123E-5F55-45EE-A9F5-276741924D0C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{177AF675-F4C3-48AE-80CF-72D2BC5B45D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B824B351-0DA3-4F1F-AE2B-74DD7D568C26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1DFEF527-81FB-4F22-966E-5F04DD22DFF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{992D0E76-C4E5-4303-A6C5-FBA0F5BF5DFA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2461,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B5C94-D176-449B-B197-0C2CAFF1FB58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43622B6-73B5-4639-88AD-A271A588C40A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3734,18 +3814,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F560E5ED-7056-4F07-9346-98CB1804FCC8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{60B06FCC-AF7C-432A-9DDD-2EE59E174077}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8F341606-60E8-40C7-9B42-50E76E1CBE91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{957067FB-5177-474F-922B-55FD92AA175F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{45800708-98EC-4E62-964F-0A46E93A07EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E889897-293D-4988-A86D-5B0D7002FC92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DAC53834-020F-41A0-946C-F283E80EFD03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7568EF16-AEDD-45B9-9C1A-A952CC6AA7BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{48AC444A-6C01-4C4E-9EB0-C7A29CB92715}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C182D56E-15E8-48A4-BED5-9A62D11541B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{18566EFD-F820-4AAE-9775-701538AE39C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AE1FFD86-DB8D-4F48-B3EA-82FDAFCF0F43}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{061FE7AA-4D39-4394-98A9-B39FE5EBD9D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2A24CCC0-4063-4E7B-9885-8F26CB91FB99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{930A71B8-D9C0-4AAA-89E9-19D6BA559EA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3877C8B1-7A65-4789-9A40-C7A9ED4DFAD3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F9936AA3-9EDD-4AF9-AA81-E695A1FDF9D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8AA12D10-094C-404A-B5D0-4AF703540280}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{33087E1B-2673-456B-8643-10D86EE47117}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9FA0C084-529C-44E8-855E-D74C2E1F8A14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{932FE789-B4E5-40E1-BB1B-D8B69E44FAF4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E3C0001E-1695-4752-B174-9FD7F181C322}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6CF893C4-9674-487F-85C3-2057942BF147}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D7EDC794-31DD-48CC-96B1-6CB5F7E59B2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3758,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3358C700-D7C9-478D-A42C-84F59B7ED56C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E3A59-E9B1-4AAC-979D-132D543FDE88}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5031,18 +5111,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DD2514AC-6C0F-4F5E-A286-345F5655AA78}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DE571221-5F9B-4612-8550-991B9B20C92A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7568E951-84C1-469B-AE48-1F24C23A1FA9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A2F6348-6A97-4242-9EC0-220274CFDCCE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1AD6A5B-A908-4E52-8698-B0AE76106BCA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{182635F8-D03C-42F8-802E-0C512E3EA5C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F1C1CE8-883B-4A21-A96C-C746AF1A6721}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1010EF3F-8577-4978-9F21-BB109D6DD28D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E1EA49EA-0C76-4FAE-99EC-08A52985617A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D10EA5D8-427E-406F-A4A4-B3091437D868}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{79F53A7D-D336-4B09-B8A9-BD34275E11D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D1D7E1CD-2FCE-4075-8FFB-F4912725CC1B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B55F217F-76B6-48B9-BDCC-648244102925}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CA856671-1224-49FA-80B5-B93AF289E70F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{45B1C7BB-658C-4444-9C21-E012C24F38B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ECEEB9EA-5B22-409E-AEA1-7ADC8893DE16}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C80600DB-0BB1-43CC-AFD5-0C908D4DBC06}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D2A8C18C-20FE-4905-9A2B-B85BEE5F97D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{58E0C775-DE6B-4A0D-85E3-138D93032EAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{11FBEBC3-B446-413D-9989-B61AB40A172F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DD82EA06-F302-41E3-8232-D8C948363C4C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F1B6BC76-8159-448E-ABC4-FD2E126B2F1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{65D1F4FB-D66F-4B5E-900D-150D0EABD7BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D49D6B84-6714-41C0-83C9-C07169F76484}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5055,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57AC82B-3ED1-45AC-AD22-AA0565B88B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5992535-70F0-41AE-91D2-473060ECE857}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6310,18 +6390,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{18CEC845-7537-4E8A-9823-F130E7A3440A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E7F4F9F0-5466-4ED5-AB0D-7E433F956150}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{36193E46-3980-48E6-B704-7037F65AA889}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E815BCC0-4771-4045-862A-32FDE3444D64}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{726DFC15-6127-422E-B4E4-F878DA790DB4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{81B99663-2F1C-46F9-96DA-9C37135AB9E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C41E6561-37BB-4AB2-A5CD-A9E29A6F2376}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DB3C9F7D-15B7-46AB-95A9-2A8D227730A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D586BDE9-5844-48F0-8072-AC769495A469}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{21E25E34-0563-4784-BF80-E74907FF963B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1113CBE6-01C3-46BD-B3CA-8580FFD583FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5D11C276-7E39-458C-BECD-361958EBB1ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9EA336F7-84EB-4B3B-8802-0869A0A08FDB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{94920562-8C6C-4513-8126-A2350A99A567}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F5FD4E1E-733C-4752-B396-8E2977D24070}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64BEAAE8-CD71-4151-A27D-CF97A5893ECA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{93964DDA-B7AC-49D1-99F6-9D305F6806A1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A2334DD0-1BC3-457C-AE92-A8FD412D1EDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{35D3E513-D320-49ED-9DE2-001EE59F0DB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{082DB5FF-5538-43DB-B0A2-04F518C09068}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E3DCD914-E1ED-429C-B3CE-0145302595C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2BC4BD0E-9226-4988-A10A-09E7F96BB552}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{57445D1E-37E4-47E0-8F88-9378D4651B3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{31CCFE04-4B4A-4F9C-B1C0-155A504E74AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6334,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9BB51C-708D-47CE-97AC-5913B22A686F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3124084-3527-4AAB-B26C-686406BCD47D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7613,18 +7693,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6953E2EE-0247-4736-A712-AC1837EBEA49}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{846420B2-985A-4F10-819F-38CE0A2A9CCC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AF77ACE7-01BB-4F0A-9E9A-66CF2BC1EC4B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D83ABD98-86C1-4905-A41F-8E2246320ED7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FB73E4AF-CFD5-4E03-9136-378EEA4BB03E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{635F372B-8E12-4E3E-A0FF-49198A6C093E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B7951823-66A5-4336-9220-EE027BEECC0C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0CD6727B-4114-4D73-8396-C526A75B4FA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1D1E17E9-7250-4BE8-8994-54460934CA2E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{04590E11-AF5C-4425-A84C-1DB5F5B567F2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5A7E0093-E80A-41B8-91E3-4738C57EC3C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BF82548B-0901-40FE-A02A-3FAF916C9873}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A9142E24-EF11-4946-B40F-0C1DF4A40C92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{65130E6D-13FD-4EEE-9CE6-96D056FF2418}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8EB81BC6-F633-45D4-8FC8-0E569FD4B505}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3ABA2AA3-24C5-4D6D-A564-6ABD45107369}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{63633825-9E1D-4B0B-9202-BC8DD44C37F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EB1FDCDD-9CE4-4D79-880D-9E889807ABA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DE03E03D-11A0-4649-8E8C-511CAF6B8407}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D3037C5E-73EC-4327-A79E-472CA4060FF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8EE8C2BF-1F23-4811-8260-5D1082C76BCD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{427710A9-4885-4A35-979E-DD82896FAD8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D9C12026-1450-4BC4-9290-037C3EE071B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{75CE25E7-CD32-4470-97B6-7CF814F4EE42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7637,7 +7717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B339382-CD53-4725-9357-BD0A67FDB508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644EE3B4-D44A-4916-8AB2-8EC1BB8BDA2F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8916,18 +8996,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F52AA294-8EFF-4EB8-ADFC-DB5FC302EAA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D7BE576-EAD0-41FF-883F-C43698B7DD0E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{716FE849-3FD4-49B5-9264-A9959A5B6D1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AB2EA456-18E1-48A1-A051-948F58E6B1A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4CB50187-2C07-4A2B-83A6-AF7524589A57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{607FB008-F64A-4C9A-A8BA-C4851977EFDE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A9F1A53F-67D2-49B0-B709-DBF54735CFF6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E5C41F95-17D4-4AAD-ACBC-3A6748C1E2B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D01E2AC8-BFA1-4823-9421-45C70CC0358A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DADC0AAC-0010-4B43-A932-C38B522507D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BDDE4BB6-AEE8-4BBA-8FA9-C1D0C2E57A3F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7BC5AC23-C166-4D45-B305-0C66E9794221}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B2171880-B580-4EAB-96E9-52369B692313}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0659A00E-25E8-4711-8ABF-53DC9FFD1B7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{05124ED6-2EFC-46AF-9511-AD4CD45EB171}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{72575CE1-24FE-4AA5-B37A-992C4C847383}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{81CB0CA3-A83E-4A88-9CB3-5347E1C9DEE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CEF09320-B473-498E-8548-0C3AF3B077C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{802FD5D6-F0AC-4590-A2E9-4395675F100C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6047FE86-4822-40DE-BCAC-A9BE2B87E962}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4A9D592A-44A0-46D9-8567-A9301367B7FB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C9ED574B-0306-448E-A7CF-82257362B508}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6A9A8BE8-1C7F-4C7E-871C-FA2F55A97DCE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EAC9AE8D-9611-4225-864C-5A1B3EDA3906}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8940,7 +9020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97230E2B-1D1D-4B28-B08B-FB05FB46A94E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3191D09-BECF-4D6E-8A0A-EAE6EC2B12BE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10219,18 +10299,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99A2B3F1-B3CE-4F98-BF1A-F0EF460D98F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AE958990-746B-455F-AB1C-7BFF43A486BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EFD323DC-7B0A-4837-A4C9-0936F67F42A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E72E3639-E29A-43DE-A41E-F3961BB2D83D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08C59ED7-B3AF-4C34-9C93-A6526554FEA7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BF75C95E-B518-4DF0-9F7B-35FDD586457E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{04807971-5A4F-4576-8E75-BED1998F4219}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1237A50E-3B3C-4743-BF9A-C7C5F441059D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D42AD820-2064-4484-BD10-EF9638EE2992}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2CBCD57E-419B-448E-A5B8-66824AE22290}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D8576A54-6DE3-4614-B147-9BE0F5E931A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A96EAF8-E959-4F24-9436-9AD9FA6A934C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{37A76A0D-EA6D-40E8-AAD0-0AA579242F44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0AA94C6E-23B0-4174-B52F-5A2AE626FAAE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{19142E4D-008B-438A-9708-0D45455A4A65}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{345DBD3E-9A79-463D-8B2A-C2FC1B356B18}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D5515D98-07CF-42B2-AB95-9D61402A4C09}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BD67DD8D-D7AC-479B-93F3-73FAE43E7E2C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{841A2C5C-BCC0-4F12-B658-5E64A7159F99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6534A41F-2210-45F7-BE11-AE3E3DD80086}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B9A9E15F-2B2E-4907-AF6C-7D320B26DCEB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A463D86E-6E37-4CA9-B451-D60177EE2707}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{16AAE144-01E2-43DF-B7E1-2DFD6BAAFCC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CBB53B68-C550-4D73-B147-4542EF5C76CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10243,7 +10323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03674ED9-6B03-41A5-AA97-7D56A6173409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9EE33F-4E2F-423E-92A8-F552A92DB584}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11522,18 +11602,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CE3D6941-049E-4672-B4A7-62AB4CA76BED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D0FFB5BE-0021-4FAE-AB8B-F02D3C8EFFD1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3AB090B0-F206-4377-B6F3-7A578C8BA7B6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7FCFC106-CF38-4E2C-8B5E-D67D959B716E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A56E84D7-9D8E-4777-913B-E2F0E9E6AECB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CE43080E-E36B-4407-950B-1551AFDAAD07}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{59FCD2D6-1A4C-4FD4-AE6D-D561E5D1846C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F2EACBE0-6F25-4FFB-A489-92462DCF7043}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2F460755-1D3D-40C3-A14A-D101180605E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{510B7B90-E733-4B06-9DA0-F5EA72A21EEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{895DA4C1-FA55-4C02-8D1F-883C04280E10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F526A226-5AAC-40D4-9317-309DC303500B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DF9318EA-0D45-47EB-91A5-D4E1B3A36F12}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AF23EF7C-0AED-4389-8588-3A52EEFEC6B4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F2554889-E314-47E4-92ED-9C181CBC27A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A489D366-BE4A-413E-9529-93A99A7A7918}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EDCB0707-DB61-4A0B-B511-AEA10F506CE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3DA756C8-5F27-4342-B464-5FF969842514}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EDDD9E4C-837C-4B5F-A77E-17B84527CED3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8C0ED0EE-40C6-457B-AFFC-79F87030EE80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0B056163-1BB5-466E-BD33-76BF8480FA32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4AEDB457-7660-4100-9B02-709A9033198E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C6BEF697-F107-482E-A90C-3D6EF7A56B0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{98BDBA1F-D9FA-4469-9B55-AA559EE08BBD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11546,7 +11626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F537DBF-8D5B-463C-BFA0-096F0B07B999}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D8F7F7-642B-4717-A941-F5DD7CC32D37}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12825,18 +12905,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{957750BC-7FB4-4B34-B07F-1C9FDFA5BEAA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{14A7B19A-F4AA-46AB-AC75-4009D8DB44B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F4E957C5-7C02-4AC1-9306-CFFDABD9A282}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8CD95E40-A732-469E-847D-D973C23E3A18}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EE3FCBFC-5075-418D-A0A0-E5A407EDF6FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A6A1FAA2-EE0B-4313-9CE6-B0016777722B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EEC21212-4209-4087-AAC0-DF1702424F5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F4DAAB73-D27B-4B46-B309-082B9724C320}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A237E9D-B617-48F5-B537-1841CC4D0361}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0A3F8174-130F-4DF0-BB52-9C46AEB6C7E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{21C45773-6E1E-4E9A-A595-DEC47CC209A9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6A57BB42-2229-4D44-9394-3F2070006220}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{66516728-17B8-4197-92A9-D2F04AF2EC9C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0AD7C43A-298C-4C4B-B5DC-173807338653}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CD011326-2809-43A4-800D-939A1A82C6EF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E1401045-13B1-4A0B-A048-2421B83765D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C154B8FC-7A28-460B-849B-78AE1A748ECE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B2403980-2A05-4408-AB18-5C48AFA09FC0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F202F63D-3197-4ABD-B4F9-BD93A02FA5F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DF7734F0-9B47-47FA-9BB1-5652BF9D77A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{198A5572-5A09-48B3-9EC3-12A6F23870E1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{895FB00D-35A8-42F0-A308-245ABAF19DE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{139AEED8-FCB6-4D40-AC8C-0B84476D89CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{71CD120D-38F1-49B6-9425-8179BFC1CE94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12849,7 +12929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0849633-6697-46AB-9E40-00DABDBD8D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC2EE5F-AB50-4237-ADA1-79D417753B16}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14128,18 +14208,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EAF636F6-F66D-4DC7-9C92-380CAB62FE96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D833BCD0-FCBD-42A0-8804-5BCF5EC10EE6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B131635A-0747-4C91-AFE0-2091117F4A28}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0979BCF8-3273-4072-B17C-EB26C6CE09BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FD607CE5-F9E3-4755-8A94-4B22DEA550F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93237425-BBD1-4B24-857A-9887ABBEE505}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BCA86610-9076-42B7-8BE9-92AF91460C66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6FA7FA98-539E-469C-AE88-AFA8B6261A0B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{680487A8-4BCB-4E63-BD51-964AF912BA79}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5BCA008C-41F2-4783-904A-DBD9635985CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2BC5B4B2-DDA0-450E-9D54-F5C089A9205E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0EA115B7-6484-4B5A-8BD1-8912547A8186}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B44D3205-9193-4E2B-A3D6-2E0A9D16ADC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B3D157F4-C6B0-4006-B3DC-718A2244E045}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{83AB2597-365A-4D6B-B620-BDDCBE9428FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D71C7744-0D7D-4FF5-B173-44431863D218}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BF9BBB60-BA7A-492E-BF68-1BF2497927E3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FE68B23A-B3A3-4AE5-AEBA-5967A24C175E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F03EF7EA-E1FB-4270-827C-17EA9F88BDED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{51B3CE52-AB05-4A62-90B9-924F65700864}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E5AE58EF-4DB2-4DFC-A55F-76B0B1B68E57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1BA428EE-0F27-4DB3-89A1-EB829F7BFEF7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DA8619C5-7189-4D64-B7F9-15F1A3ED4583}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03F4FE8C-BF37-4ADC-9884-51A31D3E1CAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14152,7 +14232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F537B3AB-2A98-4817-AAAC-A20E4E165ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D16F7BA-F487-42FF-9BCA-45CF11B6A644}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15431,18 +15511,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8C5C0873-1CB0-415E-882D-49E13546C48F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{49A8127D-203D-492C-A4F7-1214B952D229}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D23E0A33-0681-4A38-BE2E-B31FBB42DBC4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D0BA6285-8B6D-4754-83F0-66EC6F146550}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F88B8986-810B-484C-96C9-D2572B75C7CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E63AB0FD-5AA4-4107-B7C1-FD44DEF19FE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{853FDD1C-5CC1-4E93-AF4E-DEDD22BAED17}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5038A469-78B3-49D6-B91C-1C91A398A84C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DD5207DC-B886-4BC0-9FEB-5E89784481B6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C2D24DC2-937F-49E6-AA04-15C32B2CA54C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DF15C621-4287-47B0-8F01-057DDED9BDBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{837C39C6-1FAA-4DAD-AC5A-605B7522E223}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A0FC002E-E138-4957-8840-2793C6517005}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{60979D16-1477-4A88-B108-7E8C298CB1DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F1DCF0BE-979B-4C60-B034-318649F45DFE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A3C71194-D9F0-46C7-982A-F3497B4D952C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF9BDE3B-6FCC-472E-A01E-F4EC66BCD623}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D2BC9352-0B5E-4B87-8DC2-DD0F534A049E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{89DF74D4-1E49-40E8-AF89-C957A7E52980}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{88345CFF-41A6-402F-A8EA-616003C3D7E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E3B28E41-2577-4EB0-81AC-4D721B10DC8E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8749B74F-2977-4FB8-8256-22ED05BCE502}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{61B7BA4D-ABC0-431D-9BC4-AE886877B11A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BEC3818B-7921-482A-B3A5-2B9EE1E6FA80}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15455,7 +15535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB16610F-2EDC-44F8-B47A-DD4EE1795E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397CF824-78B5-4544-8123-EBE7E316FC05}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16734,18 +16814,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F296EB1E-E51B-4118-AD7E-58FC7C3B198D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4CD14633-0AA6-4B7F-8D24-82B6D0E7B915}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{63510C1B-54FC-4E13-B4AD-F1BDE699FC9C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{47DEAA38-3BC2-42A6-B8DC-FADA1AFA2905}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CD560BE4-0759-4BAB-8698-19A268B9C741}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{196E7E9E-C20F-4DDD-AD88-AE81A9F3D739}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CAC2866F-159C-448D-AA0C-90E2AE80FE9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{51472EB2-5E96-499D-9143-31CC3E87FCB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{87B5FA2A-0A2C-44B9-8945-330CE3B2F63E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{55304AB9-F6EF-4416-B803-2AC1D2CAFF14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AA8AF5F8-AC9E-4CA6-9288-C6E7B52292E0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CE65AA52-345F-4D69-B945-E00282E6EA6C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A8F0E127-7B4C-4C57-BA2D-05AA155BD8F8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{64F329EF-CD5C-40F9-8937-552EFF45B95B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DE9FF60A-ABDC-4AE4-B3AA-677198015E20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D59B034B-2C51-427C-9B72-E8779438B01E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ACD8E51B-44F9-4056-A926-C991052124D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7F523789-75C1-422D-A51D-20DDB7FCD720}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CC960A81-FA81-4CF1-9873-02D68C0012AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DB408FBC-6B65-478A-B125-5D63878FAAD6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BB625921-0B96-4735-BB0A-A44B15C9FEE6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{329695D9-6DA9-4A12-B157-3FBFD791E632}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33A7A5BC-D193-4239-B130-EB6C20769C2B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A0391B40-ABCF-4828-BB35-2086B9B71109}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
